--- a/save_excel/理论力学实验数据1.xlsx
+++ b/save_excel/理论力学实验数据1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="13190"/>
+    <workbookView windowWidth="28800" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>T</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>成绩(百分制)</t>
+  </si>
+  <si>
+    <t>军事技能</t>
+  </si>
+  <si>
+    <t>计算机思维与基础</t>
+  </si>
+  <si>
+    <t>通用英语</t>
+  </si>
+  <si>
+    <t>微积分（一）</t>
+  </si>
+  <si>
+    <t>代数与几何</t>
+  </si>
+  <si>
+    <t>思想道德与法治</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>高级程序设计一</t>
+  </si>
+  <si>
+    <t>微积分（二）</t>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+  </si>
+  <si>
+    <t>中国近代史纲要</t>
+  </si>
+  <si>
+    <t>集合论与图论</t>
+  </si>
+  <si>
+    <t>职业生涯规划与就业指导</t>
+  </si>
+  <si>
+    <t>生活中的金融学</t>
+  </si>
+  <si>
+    <t>软件与社会</t>
+  </si>
+  <si>
+    <t>程序设计实践</t>
+  </si>
+  <si>
+    <t>马克思主义原理</t>
+  </si>
+  <si>
+    <t>大学物理实验</t>
+  </si>
+  <si>
+    <t>数字逻辑设计</t>
+  </si>
+  <si>
+    <t>数据结构与算法</t>
+  </si>
+  <si>
+    <t>需求设计与分析</t>
+  </si>
+  <si>
+    <t>春秋左传导读</t>
+  </si>
+  <si>
+    <t>化妆品化学与健康</t>
   </si>
 </sst>
 </file>
@@ -27,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -42,29 +111,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,37 +194,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,17 +218,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,24 +232,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -164,22 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,37 +263,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,139 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +472,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -414,15 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,8 +522,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -469,19 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -975,275 +1044,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
